--- a/documents/StandarizedVariableAnalysis_v2.xlsx
+++ b/documents/StandarizedVariableAnalysis_v2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="176">
   <si>
     <t>Vc</t>
   </si>
@@ -545,9 +545,6 @@
     <t>Score</t>
   </si>
   <si>
-    <t>SC</t>
-  </si>
-  <si>
     <t>Run</t>
   </si>
   <si>
@@ -1391,11 +1388,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="305772488"/>
-        <c:axId val="305772880"/>
+        <c:axId val="424944456"/>
+        <c:axId val="424946024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="305772488"/>
+        <c:axId val="424944456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1441,7 +1438,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1498,7 +1494,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="305772880"/>
+        <c:crossAx val="424946024"/>
         <c:crossesAt val="-1.5"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1506,7 +1502,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="305772880"/>
+        <c:axId val="424946024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1548,7 +1544,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1603,7 +1598,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="305772488"/>
+        <c:crossAx val="424944456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2278,11 +2273,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="378931544"/>
-        <c:axId val="378925272"/>
+        <c:axId val="607748048"/>
+        <c:axId val="607750008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="378931544"/>
+        <c:axId val="607748048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2324,7 +2319,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="378925272"/>
+        <c:crossAx val="607750008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2332,7 +2327,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="378925272"/>
+        <c:axId val="607750008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2413,7 +2408,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="378931544"/>
+        <c:crossAx val="607748048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2762,11 +2757,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="378924880"/>
-        <c:axId val="378925664"/>
+        <c:axId val="607746872"/>
+        <c:axId val="607747264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="378924880"/>
+        <c:axId val="607746872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2809,7 +2804,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="378925664"/>
+        <c:crossAx val="607747264"/>
         <c:crossesAt val="-2"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2817,7 +2812,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="378925664"/>
+        <c:axId val="607747264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2918,7 +2913,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="378924880"/>
+        <c:crossAx val="607746872"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3265,11 +3260,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="378930368"/>
-        <c:axId val="378931936"/>
+        <c:axId val="607135000"/>
+        <c:axId val="607135784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="378930368"/>
+        <c:axId val="607135000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3311,7 +3306,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="378931936"/>
+        <c:crossAx val="607135784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3319,7 +3314,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="378931936"/>
+        <c:axId val="607135784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3400,7 +3395,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="378930368"/>
+        <c:crossAx val="607135000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4494,11 +4489,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="378927232"/>
-        <c:axId val="378929584"/>
+        <c:axId val="607136176"/>
+        <c:axId val="607136568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="378927232"/>
+        <c:axId val="607136176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4555,12 +4550,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="378929584"/>
+        <c:crossAx val="607136568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="378929584"/>
+        <c:axId val="607136568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4617,7 +4612,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="378927232"/>
+        <c:crossAx val="607136176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4840,11 +4835,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="378931152"/>
-        <c:axId val="378928016"/>
+        <c:axId val="607137352"/>
+        <c:axId val="607134216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="378931152"/>
+        <c:axId val="607137352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4901,12 +4896,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="378928016"/>
+        <c:crossAx val="607134216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="378928016"/>
+        <c:axId val="607134216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4963,7 +4958,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="378931152"/>
+        <c:crossAx val="607137352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6026,11 +6021,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="378928408"/>
-        <c:axId val="378930760"/>
+        <c:axId val="607135392"/>
+        <c:axId val="610546240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="378928408"/>
+        <c:axId val="607135392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6087,12 +6082,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="378930760"/>
+        <c:crossAx val="610546240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="378930760"/>
+        <c:axId val="610546240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6149,7 +6144,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="378928408"/>
+        <c:crossAx val="607135392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7113,11 +7108,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="378932328"/>
-        <c:axId val="378929192"/>
+        <c:axId val="610547416"/>
+        <c:axId val="610546632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="378932328"/>
+        <c:axId val="610547416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7150,7 +7145,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7207,7 +7201,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="378929192"/>
+        <c:crossAx val="610546632"/>
         <c:crossesAt val="-15"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7215,7 +7209,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="378929192"/>
+        <c:axId val="610546632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="25"/>
@@ -7259,7 +7253,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7314,7 +7307,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="378932328"/>
+        <c:crossAx val="610547416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8394,11 +8387,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="379218880"/>
-        <c:axId val="379223976"/>
+        <c:axId val="610547808"/>
+        <c:axId val="610548200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="379218880"/>
+        <c:axId val="610547808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8431,7 +8424,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8488,7 +8480,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="379223976"/>
+        <c:crossAx val="610548200"/>
         <c:crossesAt val="-8"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8496,7 +8488,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="379223976"/>
+        <c:axId val="610548200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -8540,7 +8532,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8595,7 +8586,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="379218880"/>
+        <c:crossAx val="610547808"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8880,11 +8871,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="305773664"/>
-        <c:axId val="305774056"/>
+        <c:axId val="432119280"/>
+        <c:axId val="432121240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="305773664"/>
+        <c:axId val="432119280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8917,7 +8908,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8974,7 +8964,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="305774056"/>
+        <c:crossAx val="432121240"/>
         <c:crossesAt val="-2"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8982,7 +8972,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="305774056"/>
+        <c:axId val="432121240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9024,7 +9014,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9079,7 +9068,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="305773664"/>
+        <c:crossAx val="432119280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9354,11 +9343,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="305770920"/>
-        <c:axId val="305771312"/>
+        <c:axId val="432120064"/>
+        <c:axId val="432122024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="305770920"/>
+        <c:axId val="432120064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9400,7 +9389,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="305771312"/>
+        <c:crossAx val="432122024"/>
         <c:crossesAt val="-3"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9408,7 +9397,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="305771312"/>
+        <c:axId val="432122024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9449,7 +9438,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9510,7 +9498,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="305770920"/>
+        <c:crossAx val="432120064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9799,11 +9787,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="307091976"/>
-        <c:axId val="307088448"/>
+        <c:axId val="432120456"/>
+        <c:axId val="432121632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="307091976"/>
+        <c:axId val="432120456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9836,7 +9824,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9893,7 +9880,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307088448"/>
+        <c:crossAx val="432121632"/>
         <c:crossesAt val="-3"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9901,7 +9888,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="307088448"/>
+        <c:axId val="432121632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9959,7 +9946,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10014,7 +10000,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307091976"/>
+        <c:crossAx val="432120456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10289,11 +10275,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="307094720"/>
-        <c:axId val="307093152"/>
+        <c:axId val="607662736"/>
+        <c:axId val="607663520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="307094720"/>
+        <c:axId val="607662736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10335,7 +10321,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307093152"/>
+        <c:crossAx val="607663520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10343,7 +10329,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="307093152"/>
+        <c:axId val="607663520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10389,7 +10375,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10450,7 +10435,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307094720"/>
+        <c:crossAx val="607662736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10464,7 +10449,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10691,11 +10675,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="307095112"/>
-        <c:axId val="307090800"/>
+        <c:axId val="607663128"/>
+        <c:axId val="607663912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="307095112"/>
+        <c:axId val="607663128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10762,7 +10746,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10820,12 +10803,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307090800"/>
+        <c:crossAx val="607663912"/>
         <c:crossesAt val="-1.5"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="307090800"/>
+        <c:axId val="607663912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10876,7 +10859,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10934,7 +10916,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307095112"/>
+        <c:crossAx val="607663128"/>
         <c:crossesAt val="-2"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11180,11 +11162,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="307092368"/>
-        <c:axId val="307088056"/>
+        <c:axId val="607661952"/>
+        <c:axId val="607660776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="307092368"/>
+        <c:axId val="607661952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11235,7 +11217,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11293,12 +11274,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307088056"/>
+        <c:crossAx val="607660776"/>
         <c:crossesAt val="-2"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="307088056"/>
+        <c:axId val="607660776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11362,7 +11343,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11420,7 +11400,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307092368"/>
+        <c:crossAx val="607661952"/>
         <c:crossesAt val="-2"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11666,11 +11646,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="307094328"/>
-        <c:axId val="307088840"/>
+        <c:axId val="607661560"/>
+        <c:axId val="607748440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="307094328"/>
+        <c:axId val="607661560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11721,7 +11701,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11779,12 +11758,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307088840"/>
+        <c:crossAx val="607748440"/>
         <c:crossesAt val="-2"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="307088840"/>
+        <c:axId val="607748440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11835,7 +11814,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11893,7 +11871,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307094328"/>
+        <c:crossAx val="607661560"/>
         <c:crossesAt val="-2"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11994,7 +11972,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12160,11 +12137,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="307089232"/>
-        <c:axId val="307090016"/>
+        <c:axId val="607748832"/>
+        <c:axId val="607749616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="307089232"/>
+        <c:axId val="607748832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12199,7 +12176,6 @@
           </c:spPr>
         </c:minorGridlines>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -12266,12 +12242,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307090016"/>
+        <c:crossAx val="607749616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="307090016"/>
+        <c:axId val="607749616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12306,7 +12282,6 @@
           </c:spPr>
         </c:minorGridlines>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -12373,7 +12348,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307089232"/>
+        <c:crossAx val="607748832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12387,7 +12362,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -30796,7 +30770,7 @@
   <dimension ref="A2:AG154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:P152"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -30807,13 +30781,13 @@
   <sheetData>
     <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2" t="s">
         <v>175</v>
       </c>
-      <c r="B2" t="s">
-        <v>176</v>
-      </c>
       <c r="C2" s="8" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>171</v>
